--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="206">
   <si>
     <t>title</t>
   </si>
@@ -653,6 +653,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>许多现代机器人技术应用程序都依赖于环境的三维地图。由于密集的三维建图的大量内存需求，压缩技术对于有效地存储或传输三维映射通常是必要的。我们研究了</t>
     </r>
     <r>
@@ -686,6 +693,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>其中一些资源有限的设备负担不起运行完整的SLAM算法的计算或内存成本。我们</t>
     </r>
     <r>
@@ -954,6 +968,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>提出了一种新的RGB-DSLAM方法，可以同时分割、跟踪和重建静态背景和大型动态刚性物体，这些静态背景可以遮挡摄像机视野的主要部分。</t>
     </r>
     <r>
@@ -1340,6 +1362,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>本文</t>
     </r>
     <r>
@@ -1400,6 +1429,55 @@
   </si>
   <si>
     <t>本文主要研究未知环境下基于视觉导航到期望目标的避免跟踪故障问题。当使用基于特征的可视化即时定位与地图构建时，在运动过程中需要对地图点进行连续的识别和关联。因此，我们讨论了一个运动规划框架，考虑到感官约束的可靠导航。我们利用 SLAM 中的可用信息，提出一种数据驱动的方法来预测给定姿态中相关的地图点的数量。然后，距离最优路径规划器利用该模型约束路径，使每个姿态中的相关映射点数目高于阈值。我们还包括一个在线的环境映射避免碰撞。总之，我们提出了一个迭代运动规划框架，使实时重新规划后获得更多的信息。在两个环境中的实验验证了该框架的性能</t>
+  </si>
+  <si>
+    <t>Semantic mapping for mobile robotics tasks ：A survey</t>
+  </si>
+  <si>
+    <t>Ioannis Kostavelis ∗, Antonios Gasteratos</t>
+  </si>
+  <si>
+    <t>Robotics and Autonomous Systems（2区）</t>
+  </si>
+  <si>
+    <t>当代移动机器人技术的发展已经推动了一系列相关技术的进步。其中就包括语义建图，它能提供对空间的抽象和人机交流的手段。最近语义建图的各种引入和发展催生了这篇文章，文中对现有方法进行了明确地分析。对几种算法按照各自的主要特征(即可扩展性、推断模型、时间一致性和拓扑地图的使用情况)进行了分类。语义地图相关的应用也在文章开头进行了概述，主要强调人机交互、认知表达和规划能力。文中还详细讨论了目前公开可用的、适合用于评估语义建图技术的验证集和基准测试。最后，尝试探讨了开放性问题的解决方案。</t>
+  </si>
+  <si>
+    <t>https://link.zhihu.com/?target=https%3A//mp.weixin.qq.com/s%3F__biz%3DMzIxOTczOTM4NA%3D%3D%26mid%3D2247521202%26idx%3D1%26sn%3D61e53a9c7279608a60b68dbb2196003e%26chksm%3D97d47625a0a3ff332cd65ac3b2a1746e2b7c45469ac8c5902d6d0dcaeb8bada931670935bc1f%26token%3D1925896280%26lang%3Dzh_CN%23rd</t>
+  </si>
+  <si>
+    <t>基于视觉SLAM的小车路径规划研究_盛家豪</t>
+  </si>
+  <si>
+    <t>盛家豪</t>
+  </si>
+  <si>
+    <t>哈工大硕士学位论文</t>
+  </si>
+  <si>
+    <t>1、RGB-D SLAM 系统的设计与实现。
+2、Octomap 建模和地图转换。实现 Octomap 建模和三维投影变换，将大规模、大空间的点云地图转换为可用于路径规划研究的二维栅格地图。
+3、基于强化学习的路径规划研究。对 SARSA 算法，Q-Learning 算法 Q-Learning 算法进行测试对比，
+综上所述，本论文是以 RGB-D SLAM 实现三维点云重构作为环境输入，基
+于深度 Q-Learning 算法实现移动机器人的自主定位和路径规划。</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/column/c_1157010142850527232</t>
+  </si>
+  <si>
+    <t>Object Detection-based Semantic Map Building for A Semantic Visual SLAM System</t>
+  </si>
+  <si>
+    <t>Phuc H. Truong1 Sujeong You1 and Sanghoon Ji1</t>
+  </si>
+  <si>
+    <t>ICCAS</t>
+  </si>
+  <si>
+    <t>提出了一种新的语义视觉同时定位和映射(SLAM)系统，它可以提供地图中丰富的地标语义信息。该系统是基于使用RGBD照相机的视觉SLAM系统而创建的。我们在SLAM系统的顶部集成了一个对象检测阶段，以获得场景的语义地标。基于语义对象的地标被连续保存到语义图中，不仅描述上下文信息，还在动态环境中更新语义图。实验结果证明了该系统的有效性。</t>
+  </si>
+  <si>
+    <t>写的有点儿LOW。。。</t>
   </si>
 </sst>
 </file>
@@ -1408,8 +1486,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1473,6 +1551,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1487,9 +1595,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1510,6 +1633,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1517,53 +1648,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1578,22 +1664,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1616,7 +1694,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,121 +1838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,25 +1850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,13 +1868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,21 +1888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1839,8 +1902,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1856,6 +1934,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1884,26 +1977,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1915,10 +1993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1927,16 +2005,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1948,112 +2026,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2430,10 +2508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
@@ -3311,6 +3389,66 @@
         <v>190</v>
       </c>
     </row>
+    <row r="47" ht="187.2" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" ht="109.2" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" ht="78" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="Past, Present, and Future of Simultaneous Localization And Mapping Towards the Robust-Perception Age" tooltip="Past, Present, and Future of Simultaneous Localization And Mapping Towards the Robust-Perception Age"/>
@@ -3322,6 +3460,8 @@
     <hyperlink ref="A8" r:id="rId7" display="基于视觉SLAM的语义地图研究"/>
     <hyperlink ref="A9" r:id="rId8" display="Simultaneous Localisation and Mapping (SLAM) Part I. "/>
     <hyperlink ref="A10" r:id="rId9" display="Simultaneous Localisation and Mapping (SLAM) Part II. "/>
+    <hyperlink ref="F47" r:id="rId10" display="https://link.zhihu.com/?target=https%3A//mp.weixin.qq.com/s%3F__biz%3DMzIxOTczOTM4NA%3D%3D%26mid%3D2247521202%26idx%3D1%26sn%3D61e53a9c7279608a60b68dbb2196003e%26chksm%3D97d47625a0a3ff332cd65ac3b2a1746e2b7c45469ac8c5902d6d0dcaeb8bada931670935bc1f%26token%3D1925896280%26lang%3Dzh_CN%23rd"/>
+    <hyperlink ref="F48" r:id="rId11" display="https://www.zhihu.com/column/c_1157010142850527232"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="208">
   <si>
     <t>title</t>
   </si>
@@ -1478,6 +1478,12 @@
   </si>
   <si>
     <t>写的有点儿LOW。。。</t>
+  </si>
+  <si>
+    <t>Semantic Mapping for Mobile Robots in Indoor Scenes A Survey</t>
+  </si>
+  <si>
+    <t>Xiaoning Han  , Shuailong Li  , Xiaohui Wang and Weijia Zhou</t>
   </si>
 </sst>
 </file>
@@ -1486,8 +1492,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1551,16 +1557,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1575,19 +1587,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1595,9 +1608,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,29 +1639,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1641,15 +1656,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1665,15 +1672,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1694,7 +1700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,7 +1712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,7 +1730,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,7 +1772,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,103 +1868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,25 +1880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,22 +1894,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1923,17 +1924,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1962,6 +1959,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1980,8 +1986,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1993,10 +1999,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2005,16 +2011,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2026,112 +2032,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2508,10 +2514,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
@@ -3447,6 +3453,17 @@
       </c>
       <c r="F49" s="1" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="50" ht="62.4" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="227"/>
+    <workbookView windowWidth="28800" windowHeight="13548" tabRatio="227"/>
   </bookViews>
   <sheets>
     <sheet name="slam" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="214">
   <si>
     <t>title</t>
   </si>
@@ -1484,6 +1484,25 @@
   </si>
   <si>
     <t>Xiaoning Han  , Shuailong Li  , Xiaohui Wang and Weijia Zhou</t>
+  </si>
+  <si>
+    <t>室内场景下实时地三维语义地图构建</t>
+  </si>
+  <si>
+    <t>单吉超，李秀智</t>
+  </si>
+  <si>
+    <t>仪器仪表学报</t>
+  </si>
+  <si>
+    <t>基于深度残差网络( DＲN) 的像素级图像语义分割和三维同时定位与建图( SLAM) 相融合的三维语义地图构建方法。首先，采用一种联合中值滤波算法进行深度图像的修复，使用改进的迭代最近点( ICP) 算法得到相机估计
+位姿以及基于随机蕨类的闭环检测构建出三维环境地图; 其次，采用优化的深度残差网络对输入的图像实现较精准的像素语义级别的预测与分割; 最后，采用贝叶斯更新方法，渐进式的将图像分割获取的语义分类标签迁移到重建的室内三维模型中，获得完整的三维语义地图。实验表明，所设计的方法可以在实际的、复杂环境下实时地构建语义地图。</t>
+  </si>
+  <si>
+    <t>实时的移动机器人语义地图构建系统</t>
+  </si>
+  <si>
+    <t>李秀智，李尚宇</t>
   </si>
 </sst>
 </file>
@@ -1491,10 +1510,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1557,6 +1576,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1571,40 +1628,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1613,14 +1641,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1655,17 +1675,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1700,6 +1719,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1712,7 +1755,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,13 +1839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,73 +1857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,43 +1887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,71 +1910,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1985,6 +1939,71 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1999,10 +2018,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2011,16 +2030,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2032,13 +2051,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2053,91 +2072,91 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2514,9 +2533,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
       <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
@@ -3464,6 +3483,37 @@
       </c>
       <c r="C50" s="1">
         <v>2021</v>
+      </c>
+    </row>
+    <row r="51" ht="124.8" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13548" tabRatio="227"/>
+    <workbookView windowWidth="23040" windowHeight="10308" tabRatio="227"/>
   </bookViews>
   <sheets>
     <sheet name="slam" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="218">
   <si>
     <t>title</t>
   </si>
@@ -1503,6 +1503,18 @@
   </si>
   <si>
     <t>李秀智，李尚宇</t>
+  </si>
+  <si>
+    <t>RDS-SLAM_Real-Time_Dynamic_SLAM_Using_Semantic_Segmentation_Methods.pdf</t>
+  </si>
+  <si>
+    <t>YUBAO LIU AND JUN MIURA</t>
+  </si>
+  <si>
+    <t>a real-time visual dynamic SLAM algorithm that is built on ORB-SLAM3 and adds a semantic thread and a semantic-based optimization thread for robust tracking and mapping in dynamic environments in real-time.相比于其他将CNN语义识别放到track线程中，此文提出并行语义识别线程，不损耗track时间。提出了一种尽可能获得最新语义信息算法，从而适用不同速度分割算法。使用移动概率更新和传播语义信息，该概率保存在地图中，并使用数据关联算法去除outliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 开源！https://github.com/yubaoliu/RDS-SLAM.git</t>
   </si>
 </sst>
 </file>
@@ -1511,9 +1523,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1578,37 +1590,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1622,25 +1611,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1675,8 +1670,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1691,14 +1695,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1719,13 +1731,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1737,7 +1755,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,7 +1839,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,19 +1869,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,121 +1911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,6 +1922,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1937,56 +1988,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2010,6 +2011,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2018,10 +2030,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2030,16 +2042,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2051,112 +2063,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2533,10 +2545,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
@@ -3514,6 +3526,26 @@
       </c>
       <c r="D52" s="1" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="58" ht="109.2" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="226">
   <si>
     <t>title</t>
   </si>
@@ -1474,7 +1474,7 @@
     <t>ICCAS</t>
   </si>
   <si>
-    <t>提出了一种新的语义视觉同时定位和映射(SLAM)系统，它可以提供地图中丰富的地标语义信息。该系统是基于使用RGBD照相机的视觉SLAM系统而创建的。我们在SLAM系统的顶部集成了一个对象检测阶段，以获得场景的语义地标。基于语义对象的地标被连续保存到语义图中，不仅描述上下文信息，还在动态环境中更新语义图。实验结果证明了该系统的有效性。</t>
+    <t>提出了一种新的语义视觉同时定位和建图(SLAM)系统，它可以提供地图中丰富的地标语义信息。该系统是基于使用RGBD照相机的视觉SLAM系统而创建的。我们在SLAM系统的顶部集成了一个对象检测阶段，以获得场景的语义地标。基于语义对象的地标被连续保存到语义图中，不仅描述上下文信息，还在动态环境中更新语义图。实验结果证明了该系统的有效性。</t>
   </si>
   <si>
     <t>写的有点儿LOW。。。</t>
@@ -1515,6 +1515,55 @@
   </si>
   <si>
     <t xml:space="preserve"> 开源！https://github.com/yubaoliu/RDS-SLAM.git</t>
+  </si>
+  <si>
+    <t>Semantic Information for Robot Navigation:
+A Survey</t>
+  </si>
+  <si>
+    <t>Jonathan Crespo 1,* , Jose Carlos Castillo</t>
+  </si>
+  <si>
+    <t>applied science</t>
+  </si>
+  <si>
+    <t>very good a survey for semantic map &amp; slam for robotics</t>
+  </si>
+  <si>
+    <t>A Semantic Map for Indoor Robot 
+Navigation Based on Predicate Logic</t>
+  </si>
+  <si>
+    <t>Hengsheng Wang</t>
+  </si>
+  <si>
+    <t>重点关注自然语言指令中用于在室内导航机器人的概念的语义意义。本文称为语义映射，其中基本谓词子句基于两种实体，即“区域”和“节点”。室内环境的区域名称（在自然语言惯例中）由本体组织，并在语义图中定义，其中包括区域的几何信息和区域之间的连接关系。在语义映射数据库中，通过正确设计基于约束满足问题(CSP)的谓词进行推理，实现了拓扑地图、路径规划和自定位等机器人导航功能。</t>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谓词逻辑推理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现自然语言到地图路径规划和定位的对应</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1522,12 +1571,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1588,16 +1637,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,21 +1659,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1680,7 +1730,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1688,7 +1738,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1702,21 +1759,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1731,7 +1788,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,13 +1836,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,157 +1956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1936,6 +1993,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1973,6 +2045,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1988,21 +2071,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2011,17 +2079,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2030,10 +2087,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2042,10 +2099,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2063,10 +2120,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2081,94 +2138,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2545,10 +2602,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
@@ -3546,6 +3603,40 @@
       </c>
       <c r="F58" s="1" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="64" ht="46.8" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" ht="93.6" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10308" tabRatio="227"/>
+    <workbookView windowWidth="28128" windowHeight="13548" tabRatio="227"/>
   </bookViews>
   <sheets>
     <sheet name="slam" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="232">
   <si>
     <t>title</t>
   </si>
@@ -1541,6 +1541,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使用</t>
     </r>
     <r>
@@ -1564,6 +1571,28 @@
       </rPr>
       <t>实现自然语言到地图路径规划和定位的对应</t>
     </r>
+  </si>
+  <si>
+    <t>Semantic_SLAM_Based_on_Object_Detection_and_Improved_Octomap</t>
+  </si>
+  <si>
+    <t>LIANG ZHANG
+, LEQI WEI
+, PEIYI SHEN</t>
+  </si>
+  <si>
+    <t>直接用YOLO检测对象，然后剔除属于先验动态对象目标范围内的特征点，从而实现动态环境下的正确数据关联</t>
+  </si>
+  <si>
+    <t>A_Mobile_Robot_Visual_SLAM_System_With_Enhanced_Semantics_Segmentation</t>
+  </si>
+  <si>
+    <t>FENG LI
+, WENFENG CHEN
+, WEIFENG XU</t>
+  </si>
+  <si>
+    <t>使用Segment进行语义分割，然后剔除人与椅子等对象内的特征点</t>
   </si>
 </sst>
 </file>
@@ -1572,9 +1601,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1638,6 +1667,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1645,7 +1688,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1659,15 +1702,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1681,18 +1723,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1730,7 +1780,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1738,28 +1788,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1788,7 +1817,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,19 +1889,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1824,85 +1919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1920,13 +1943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,7 +1955,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,19 +1991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,17 +2026,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2023,6 +2046,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2045,6 +2083,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2055,30 +2108,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2087,10 +2116,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2099,16 +2128,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2120,112 +2149,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2602,10 +2631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
@@ -3637,6 +3666,34 @@
       </c>
       <c r="F65" s="1" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="107" ht="62.4" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="110" ht="46.8" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
